--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -37,7 +37,10 @@
     <t>client</t>
   </si>
   <si>
-    <t>Sambhav</t>
+    <t>sambhav</t>
+  </si>
+  <si>
+    <t>arman</t>
   </si>
 </sst>
 </file>
@@ -45,13 +48,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +77,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -74,13 +96,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -387,25 +421,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -413,10 +447,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -424,21 +458,32 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>123</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>a</t>
+    <t>demo</t>
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>client</t>
@@ -58,13 +55,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,28 +93,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +423,7 @@
   <cols>
     <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -456,35 +450,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
